--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_34_2.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_34_2.xlsx
@@ -518,551 +518,551 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_34_2_7</t>
+          <t>model_34_2_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999808429930714</v>
+        <v>0.9999553102380663</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991159589838938</v>
+        <v>0.9991510244365853</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999841459854505</v>
+        <v>0.999819883070971</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999503336607282</v>
+        <v>0.9998046020967155</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999696331233009</v>
+        <v>0.9998182186554224</v>
       </c>
       <c r="G2" t="n">
-        <v>1.788222507238396e-05</v>
+        <v>4.171593111133932e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000825213483619365</v>
+        <v>0.0007924814227273584</v>
       </c>
       <c r="I2" t="n">
-        <v>1.782255029240872e-05</v>
+        <v>0.0001792988320687418</v>
       </c>
       <c r="J2" t="n">
-        <v>6.422942786580833e-05</v>
+        <v>7.954006126971828e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>4.102598907910853e-05</v>
+        <v>0.00012941944666923</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003939915642814833</v>
+        <v>0.0004137139380285832</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004228737999969253</v>
+        <v>0.006458787123859968</v>
       </c>
       <c r="N2" t="n">
-        <v>1.0000158540747</v>
+        <v>1.000036984630566</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004408764131322376</v>
+        <v>0.006733751063255203</v>
       </c>
       <c r="P2" t="n">
-        <v>127.8634067023946</v>
+        <v>126.1692549221586</v>
       </c>
       <c r="Q2" t="n">
-        <v>192.4638254204093</v>
+        <v>190.7696736401732</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_34_2_8</t>
+          <t>model_34_2_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999829790260565</v>
+        <v>0.9999552938834689</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991158828834601</v>
+        <v>0.9991498664951245</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999834151749214</v>
+        <v>0.999820637804804</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999565991912379</v>
+        <v>0.9998036098956204</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999723278261563</v>
+        <v>0.9998184599218227</v>
       </c>
       <c r="G3" t="n">
-        <v>1.58883320418765e-05</v>
+        <v>4.173119741006265e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008252845200338295</v>
+        <v>0.000793562310253296</v>
       </c>
       <c r="I3" t="n">
-        <v>1.86441029261732e-05</v>
+        <v>0.0001785475262614059</v>
       </c>
       <c r="J3" t="n">
-        <v>5.612672801276984e-05</v>
+        <v>7.994395370954145e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>3.738541546947153e-05</v>
+        <v>0.0001292476767656397</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003741839864940801</v>
+        <v>0.0004177251130630446</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0039860170649254</v>
+        <v>0.006459968839712979</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000014086323264</v>
+        <v>1.000036998165405</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004155710063572104</v>
+        <v>0.006734983087198564</v>
       </c>
       <c r="P3" t="n">
-        <v>128.0998511039404</v>
+        <v>126.1685231390924</v>
       </c>
       <c r="Q3" t="n">
-        <v>192.700269821955</v>
+        <v>190.768941857107</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_34_2_9</t>
+          <t>model_34_2_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999846925652323</v>
+        <v>0.9999552711585965</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991153560070072</v>
+        <v>0.999148560663202</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999982735747965</v>
+        <v>0.9998214693884248</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999615556232018</v>
+        <v>0.9998025714720349</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999744167644428</v>
+        <v>0.99981874714095</v>
       </c>
       <c r="G4" t="n">
-        <v>1.428881843699061e-05</v>
+        <v>4.175241008090697e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008257763360754649</v>
+        <v>0.0007947812470335501</v>
       </c>
       <c r="I4" t="n">
-        <v>1.940789187457465e-05</v>
+        <v>0.000177719719720624</v>
       </c>
       <c r="J4" t="n">
-        <v>4.971697859373027e-05</v>
+        <v>8.036666180534209e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.456323654811416e-05</v>
+        <v>0.000129043190762983</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003555431599294324</v>
+        <v>0.0004221500446144134</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003780055348403064</v>
+        <v>0.006461610486628466</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000012668221877</v>
+        <v>1.000037016972196</v>
       </c>
       <c r="O4" t="n">
-        <v>0.003940980130377882</v>
+        <v>0.006736694622421922</v>
       </c>
       <c r="P4" t="n">
-        <v>128.3120665080927</v>
+        <v>126.1675067636895</v>
       </c>
       <c r="Q4" t="n">
-        <v>192.9124852261073</v>
+        <v>190.7679254817041</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_34_2_6</t>
+          <t>model_34_2_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999781409726777</v>
+        <v>0.9999552264928683</v>
       </c>
       <c r="C5" t="n">
-        <v>0.999115298796961</v>
+        <v>0.9991470986240223</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999849127104435</v>
+        <v>0.9998223815696601</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999421842626113</v>
+        <v>0.9998013405843288</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999660521144127</v>
+        <v>0.9998190329640282</v>
       </c>
       <c r="G5" t="n">
-        <v>2.040444250493564e-05</v>
+        <v>4.179410357763567e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008258297391422245</v>
+        <v>0.0007961459964316229</v>
       </c>
       <c r="I5" t="n">
-        <v>1.696062382536461e-05</v>
+        <v>0.0001768116816421862</v>
       </c>
       <c r="J5" t="n">
-        <v>7.476838012552207e-05</v>
+        <v>8.086771571591592e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>4.586397202331982e-05</v>
+        <v>0.0001288396986790511</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004163828076375161</v>
+        <v>0.0004270893625986101</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00451712768304546</v>
+        <v>0.006464835928129627</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000018090229508</v>
+        <v>1.000037053936937</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004709431160256078</v>
+        <v>0.006740057377645372</v>
       </c>
       <c r="P5" t="n">
-        <v>127.5995158219455</v>
+        <v>126.1655105822397</v>
       </c>
       <c r="Q5" t="n">
-        <v>192.1999345399601</v>
+        <v>190.7659293002543</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_34_2_10</t>
+          <t>model_34_2_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999860458435451</v>
+        <v>0.9999551555210446</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991145042862213</v>
+        <v>0.9991454765715974</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999821111313512</v>
+        <v>0.9998233934699904</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999654000094383</v>
+        <v>0.9997998681261628</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999759974549313</v>
+        <v>0.9998193194407866</v>
       </c>
       <c r="G6" t="n">
-        <v>1.302559253393443e-05</v>
+        <v>4.186035265971099e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000826571380042806</v>
+        <v>0.0007976601111704912</v>
       </c>
       <c r="I6" t="n">
-        <v>2.011006487803779e-05</v>
+        <v>0.0001758043773961463</v>
       </c>
       <c r="J6" t="n">
-        <v>4.474534726173906e-05</v>
+        <v>8.146710501728606e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>3.242770606988843e-05</v>
+        <v>0.0001286357412067162</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003382622520956718</v>
+        <v>0.0004326182516486396</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003609098576367018</v>
+        <v>0.006469957701539554</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000011548267411</v>
+        <v>1.000037112672239</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003762745374626957</v>
+        <v>0.006745397195552893</v>
       </c>
       <c r="P6" t="n">
-        <v>128.4971889586217</v>
+        <v>126.1623428324793</v>
       </c>
       <c r="Q6" t="n">
-        <v>193.0976076766364</v>
+        <v>190.7627615504939</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_34_2_5</t>
+          <t>model_34_2_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999747712848092</v>
+        <v>0.9999550721594133</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991136106024923</v>
+        <v>0.9991436288508095</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999856748336999</v>
+        <v>0.999824510958197</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999317958010432</v>
+        <v>0.9997984377083817</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999613967653319</v>
+        <v>0.9998196890112283</v>
       </c>
       <c r="G7" t="n">
-        <v>2.354989821804384e-05</v>
+        <v>4.193816708342905e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008274055945757384</v>
+        <v>0.0007993848774203414</v>
       </c>
       <c r="I7" t="n">
-        <v>1.610387047599117e-05</v>
+        <v>0.0001746919648573227</v>
       </c>
       <c r="J7" t="n">
-        <v>8.82029306220368e-05</v>
+        <v>8.204938106035013e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>5.215340054901397e-05</v>
+        <v>0.0001283726250867256</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004413509882886143</v>
+        <v>0.0004386333968612339</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004852823736552136</v>
+        <v>0.006475968428229792</v>
       </c>
       <c r="N7" t="n">
-        <v>1.00002087893671</v>
+        <v>1.000037181661175</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005059418489747164</v>
+        <v>0.006751663811322252</v>
       </c>
       <c r="P7" t="n">
-        <v>127.3127781189252</v>
+        <v>126.1586284734991</v>
       </c>
       <c r="Q7" t="n">
-        <v>191.9131968369398</v>
+        <v>190.7590471915137</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_34_2_11</t>
+          <t>model_34_2_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999987096285167</v>
+        <v>0.9999549548414969</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991133897578017</v>
+        <v>0.9991415536812732</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999815367774382</v>
+        <v>0.9998257466873854</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999683155847001</v>
+        <v>0.9997967730360794</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999977153879836</v>
+        <v>0.9998200823480823</v>
       </c>
       <c r="G8" t="n">
-        <v>1.204505138892277e-05</v>
+        <v>4.204767820875138e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008276117434003521</v>
+        <v>0.0008013219570930805</v>
       </c>
       <c r="I8" t="n">
-        <v>2.075573424262337e-05</v>
+        <v>0.0001734618483911273</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097487144834689e-05</v>
+        <v>8.272701441619617e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>3.086536312688904e-05</v>
+        <v>0.0001280925884409125</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003223590032003768</v>
+        <v>0.0004452922256263764</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003470598131291315</v>
+        <v>0.006484418108724281</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000010678936414</v>
+        <v>1.000037278751865</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003618348678868936</v>
+        <v>0.006760473212208642</v>
       </c>
       <c r="P8" t="n">
-        <v>128.6537133109907</v>
+        <v>126.1534127761632</v>
       </c>
       <c r="Q8" t="n">
-        <v>193.2541320290053</v>
+        <v>190.7538314941778</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_34_2_12</t>
+          <t>model_34_2_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999987914577398</v>
+        <v>0.9999547812267524</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991121675129686</v>
+        <v>0.9991392316638338</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999810153164385</v>
+        <v>0.9998270916244867</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999705434192834</v>
+        <v>0.9997947754962174</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999780042631999</v>
+        <v>0.9998204489530075</v>
       </c>
       <c r="G9" t="n">
-        <v>1.128121151019967e-05</v>
+        <v>4.220973995188382e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008287526553017531</v>
+        <v>0.000803489458448008</v>
       </c>
       <c r="I9" t="n">
-        <v>2.13419431718642e-05</v>
+        <v>0.0001721230200380242</v>
       </c>
       <c r="J9" t="n">
-        <v>3.809379459116414e-05</v>
+        <v>8.354014721003025e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>2.971648571859677e-05</v>
+        <v>0.0001278315836240272</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003076807120155383</v>
+        <v>0.000452777916552476</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003358751480863041</v>
+        <v>0.006496902335104309</v>
       </c>
       <c r="N9" t="n">
-        <v>1.00001000172905</v>
+        <v>1.000037422433032</v>
       </c>
       <c r="O9" t="n">
-        <v>0.003501740484977446</v>
+        <v>0.006773488917951578</v>
       </c>
       <c r="P9" t="n">
-        <v>128.7847438285504</v>
+        <v>126.1457191180131</v>
       </c>
       <c r="Q9" t="n">
-        <v>193.385162546565</v>
+        <v>190.7461378360278</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_34_2_13</t>
+          <t>model_34_2_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999885463251095</v>
+        <v>0.9999545380061626</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991109035649938</v>
+        <v>0.9991366246204954</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999805404045721</v>
+        <v>0.9998285289540909</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999722314885812</v>
+        <v>0.9997924034171268</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999786135831629</v>
+        <v>0.9998207781028041</v>
       </c>
       <c r="G10" t="n">
-        <v>1.069150275210701e-05</v>
+        <v>4.243677569630907e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008299324952552777</v>
+        <v>0.0008059230189684183</v>
       </c>
       <c r="I10" t="n">
-        <v>2.187582312989242e-05</v>
+        <v>0.0001706922188316868</v>
       </c>
       <c r="J10" t="n">
-        <v>3.591075217675907e-05</v>
+        <v>8.450574260808129e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>2.889328765332575e-05</v>
+        <v>0.0001275972450308236</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002941463833657088</v>
+        <v>0.000461157796337819</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003269786346553397</v>
+        <v>0.00651435151771142</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000009478903358</v>
+        <v>1.000037623719038</v>
       </c>
       <c r="O10" t="n">
-        <v>0.003408987920717024</v>
+        <v>0.006791680948387061</v>
       </c>
       <c r="P10" t="n">
-        <v>128.892122534612</v>
+        <v>126.1349904406602</v>
       </c>
       <c r="Q10" t="n">
-        <v>193.4925412526266</v>
+        <v>190.7354091586749</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_34_2_4</t>
+          <t>model_34_2_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999706227014059</v>
+        <v>0.9999542407799052</v>
       </c>
       <c r="C11" t="n">
-        <v>0.99911063397684</v>
+        <v>0.9991336687456654</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999864023467236</v>
+        <v>0.9998301252300781</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999187498211</v>
+        <v>0.9997899289048485</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999554528868461</v>
+        <v>0.9998211910759107</v>
       </c>
       <c r="G11" t="n">
-        <v>2.742241872317153e-05</v>
+        <v>4.271422336081105e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.000830184143963306</v>
+        <v>0.0008086821983742216</v>
       </c>
       <c r="I11" t="n">
-        <v>1.528602478691501e-05</v>
+        <v>0.0001691031931821353</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001050742329967617</v>
+        <v>8.551303518861829e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>6.018364667103165e-05</v>
+        <v>0.0001273032283314251</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004675591055917274</v>
+        <v>0.0004703422498460749</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005236641931922741</v>
+        <v>0.006535611934686074</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000024312247112</v>
+        <v>1.000037869699389</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005459576620307891</v>
+        <v>0.006813846465327458</v>
       </c>
       <c r="P11" t="n">
-        <v>127.0082993550782</v>
+        <v>126.1219571868206</v>
       </c>
       <c r="Q11" t="n">
-        <v>191.6087180730928</v>
+        <v>190.7223759048352</v>
       </c>
     </row>
     <row r="12">
@@ -1072,657 +1072,657 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999890198745168</v>
+        <v>0.999953870395895</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991096287368286</v>
+        <v>0.9991303127911526</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999801083566846</v>
+        <v>0.9998319156386224</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999734519599778</v>
+        <v>0.9997872755243492</v>
       </c>
       <c r="F12" t="n">
-        <v>0.999979017962672</v>
+        <v>0.9998216773457488</v>
       </c>
       <c r="G12" t="n">
-        <v>1.024946516673631e-05</v>
+        <v>4.305996057646418e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008311224913890324</v>
+        <v>0.0008118148346025766</v>
       </c>
       <c r="I12" t="n">
-        <v>2.236151684364127e-05</v>
+        <v>0.0001673209167317731</v>
       </c>
       <c r="J12" t="n">
-        <v>3.433241601018345e-05</v>
+        <v>8.659313914028861e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>2.834696642691236e-05</v>
+        <v>0.0001269570279360309</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002818479615324117</v>
+        <v>0.0004804157491311593</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003201478590704038</v>
+        <v>0.006562008882687083</v>
       </c>
       <c r="N12" t="n">
-        <v>1.0000090870004</v>
+        <v>1.000038176224087</v>
       </c>
       <c r="O12" t="n">
-        <v>0.00333777216228461</v>
+        <v>0.006841367186054085</v>
       </c>
       <c r="P12" t="n">
-        <v>128.9765700651924</v>
+        <v>126.1058339631548</v>
       </c>
       <c r="Q12" t="n">
-        <v>193.576988783207</v>
+        <v>190.7062526811694</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_34_2_15</t>
+          <t>model_34_2_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999893732646576</v>
+        <v>0.9999533926797247</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991083832435601</v>
+        <v>0.9991265046841682</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999797199589776</v>
+        <v>0.9998338477783586</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999743257485493</v>
+        <v>0.9997843344380224</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999792745763499</v>
+        <v>0.999822185459561</v>
       </c>
       <c r="G13" t="n">
-        <v>9.919590982332264e-06</v>
+        <v>4.35058876520202e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008322851046843524</v>
+        <v>0.0008153695353159756</v>
       </c>
       <c r="I13" t="n">
-        <v>2.279814049156801e-05</v>
+        <v>0.000165397552837162</v>
       </c>
       <c r="J13" t="n">
-        <v>3.320241648046798e-05</v>
+        <v>8.779035867388374e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>2.800027848601799e-05</v>
+        <v>0.0001265952756969243</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002705796720551301</v>
+        <v>0.0004915162716770716</v>
       </c>
       <c r="M13" t="n">
-        <v>0.003149538217315717</v>
+        <v>0.006595899305782358</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000008794539594</v>
+        <v>1.0000385715754</v>
       </c>
       <c r="O13" t="n">
-        <v>0.003283620579669752</v>
+        <v>0.006876700394623373</v>
       </c>
       <c r="P13" t="n">
-        <v>129.0419977382745</v>
+        <v>126.0852285614122</v>
       </c>
       <c r="Q13" t="n">
-        <v>193.6424164562892</v>
+        <v>190.6856472794268</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_34_2_16</t>
+          <t>model_34_2_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999896213544417</v>
+        <v>0.9999527915350798</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991071450215766</v>
+        <v>0.999122194021305</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999793573731899</v>
+        <v>0.9998359779403821</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999748975691802</v>
+        <v>0.9997810766343792</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999793974037049</v>
+        <v>0.9998227445693542</v>
       </c>
       <c r="G14" t="n">
-        <v>9.68801005881591e-06</v>
+        <v>4.406702979089427e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008334409305542716</v>
+        <v>0.0008193933498825208</v>
       </c>
       <c r="I14" t="n">
-        <v>2.320574724727981e-05</v>
+        <v>0.0001632770660789121</v>
       </c>
       <c r="J14" t="n">
-        <v>3.246292747230959e-05</v>
+        <v>8.911650341252966e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>2.78343373597947e-05</v>
+        <v>0.0001261972168079585</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002604384450393911</v>
+        <v>0.0005037415717338306</v>
       </c>
       <c r="M14" t="n">
-        <v>0.003112556836238643</v>
+        <v>0.006638300218496771</v>
       </c>
       <c r="N14" t="n">
-        <v>1.00000858922391</v>
+        <v>1.000039069074417</v>
       </c>
       <c r="O14" t="n">
-        <v>0.003245064824638215</v>
+        <v>0.006920906401974027</v>
       </c>
       <c r="P14" t="n">
-        <v>129.0892430268765</v>
+        <v>126.0595973578215</v>
       </c>
       <c r="Q14" t="n">
-        <v>193.6896617448911</v>
+        <v>190.6600160758361</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_34_2_17</t>
+          <t>model_34_2_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999897977599697</v>
+        <v>0.9999520424250119</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991059735930544</v>
+        <v>0.9991172788654546</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999790345210242</v>
+        <v>0.9998383195592527</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999752682321292</v>
+        <v>0.9997775944933478</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999794408635131</v>
+        <v>0.9998233867356792</v>
       </c>
       <c r="G15" t="n">
-        <v>9.523343241729952e-06</v>
+        <v>4.476629115714849e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008345344076599522</v>
+        <v>0.0008239814321184299</v>
       </c>
       <c r="I15" t="n">
-        <v>2.356868680066103e-05</v>
+        <v>0.0001609460829174939</v>
       </c>
       <c r="J15" t="n">
-        <v>3.198357929615387e-05</v>
+        <v>9.053396852516135e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>2.777562267413519e-05</v>
+        <v>0.0001257400257213276</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002511167049395454</v>
+        <v>0.0005171054904452728</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003085991451985885</v>
+        <v>0.00669076162758385</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000008443233129</v>
+        <v>1.000039689027576</v>
       </c>
       <c r="O15" t="n">
-        <v>0.003217368496979891</v>
+        <v>0.006975601201856032</v>
       </c>
       <c r="P15" t="n">
-        <v>129.1235291799132</v>
+        <v>126.0281102625769</v>
       </c>
       <c r="Q15" t="n">
-        <v>193.7239478979278</v>
+        <v>190.6285289805915</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_34_2_3</t>
+          <t>model_34_2_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.999965331685173</v>
+        <v>0.9999510867769461</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991055132100768</v>
+        <v>0.9991116783604088</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999869356422945</v>
+        <v>0.9998408306345958</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999014789940645</v>
+        <v>0.9997736672745868</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999474142067606</v>
+        <v>0.9998240195236667</v>
       </c>
       <c r="G16" t="n">
-        <v>3.236135012785142e-05</v>
+        <v>4.565834667846099e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00083496415496109</v>
+        <v>0.0008292092577449427</v>
       </c>
       <c r="I16" t="n">
-        <v>1.468651183067634e-05</v>
+        <v>0.0001584464129604969</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001274091857137817</v>
+        <v>9.213261014626602e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>7.104399311575405e-05</v>
+        <v>0.0001252895115533815</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004955293638175977</v>
+        <v>0.0005318660708443749</v>
       </c>
       <c r="M16" t="n">
-        <v>0.00568870373001191</v>
+        <v>0.006757096024066921</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000028691019167</v>
+        <v>1.000040479908734</v>
       </c>
       <c r="O16" t="n">
-        <v>0.005930883625038645</v>
+        <v>0.007044759590928518</v>
       </c>
       <c r="P16" t="n">
-        <v>126.6770914890457</v>
+        <v>125.9886482538511</v>
       </c>
       <c r="Q16" t="n">
-        <v>191.2775102070603</v>
+        <v>190.5890669718657</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_34_2_18</t>
+          <t>model_34_2_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999899108988152</v>
+        <v>0.9999499025947964</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991048603688291</v>
+        <v>0.9991052731385143</v>
       </c>
       <c r="D17" t="n">
-        <v>0.999978736688783</v>
+        <v>0.9998435617664195</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999754649108881</v>
+        <v>0.9997695343927703</v>
       </c>
       <c r="F17" t="n">
-        <v>0.999979410645369</v>
+        <v>0.9998247473591163</v>
       </c>
       <c r="G17" t="n">
-        <v>9.417733095674929e-06</v>
+        <v>4.676372873559285e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008355735536094449</v>
+        <v>0.0008351882512267616</v>
       </c>
       <c r="I17" t="n">
-        <v>2.390349979588151e-05</v>
+        <v>0.0001557276860265111</v>
       </c>
       <c r="J17" t="n">
-        <v>3.17292306903024e-05</v>
+        <v>9.381497043461634e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>2.781644772382221e-05</v>
+        <v>0.0001247713282305637</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002427108278531662</v>
+        <v>0.0005479883083272074</v>
       </c>
       <c r="M17" t="n">
-        <v>0.003068832529753771</v>
+        <v>0.006838401036469918</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000008349600981</v>
+        <v>1.000041459921548</v>
       </c>
       <c r="O17" t="n">
-        <v>0.00319947908390449</v>
+        <v>0.007129525926034089</v>
       </c>
       <c r="P17" t="n">
-        <v>129.1458322927078</v>
+        <v>125.9408053650933</v>
       </c>
       <c r="Q17" t="n">
-        <v>193.7462510107224</v>
+        <v>190.5412240831079</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_34_2_19</t>
+          <t>model_34_2_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999899776842828</v>
+        <v>0.9999484395542585</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991038005757729</v>
+        <v>0.9990979380963614</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999784669940521</v>
+        <v>0.9998465475458989</v>
       </c>
       <c r="E18" t="n">
-        <v>0.99997552945523</v>
+        <v>0.9997651539774499</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999793309552344</v>
+        <v>0.9998255851256797</v>
       </c>
       <c r="G18" t="n">
-        <v>9.3553917932564e-06</v>
+        <v>4.812941285766189e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008365628239078075</v>
+        <v>0.0008420351911054112</v>
       </c>
       <c r="I18" t="n">
-        <v>2.420668154777301e-05</v>
+        <v>0.0001527554680547934</v>
       </c>
       <c r="J18" t="n">
-        <v>3.164576075428322e-05</v>
+        <v>9.559809347282727e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>2.792410998445594e-05</v>
+        <v>0.0001241748793193405</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002351214328411534</v>
+        <v>0.0005655568871908095</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003058658495689965</v>
+        <v>0.006937536512167838</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000008294330249</v>
+        <v>1.000042670713717</v>
       </c>
       <c r="O18" t="n">
-        <v>0.003188871920147434</v>
+        <v>0.007232881804171194</v>
       </c>
       <c r="P18" t="n">
-        <v>129.1591154369783</v>
+        <v>125.883234147633</v>
       </c>
       <c r="Q18" t="n">
-        <v>193.759534154993</v>
+        <v>190.4836528656476</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_34_2_20</t>
+          <t>model_34_2_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999900093860135</v>
+        <v>0.9999466714264453</v>
       </c>
       <c r="C19" t="n">
-        <v>0.999102816302107</v>
+        <v>0.9990895079665055</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999978224392378</v>
+        <v>0.9998498521674365</v>
       </c>
       <c r="E19" t="n">
-        <v>0.999975506451807</v>
+        <v>0.9997609312604313</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999792174493494</v>
+        <v>0.9998266855379704</v>
       </c>
       <c r="G19" t="n">
-        <v>9.325799619162694e-06</v>
+        <v>4.977988255948585e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008374816001703559</v>
+        <v>0.0008499043472858312</v>
       </c>
       <c r="I19" t="n">
-        <v>2.447940619573359e-05</v>
+        <v>0.0001494658562158538</v>
       </c>
       <c r="J19" t="n">
-        <v>3.167550920611405e-05</v>
+        <v>9.731702271790818e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>2.807745770092382e-05</v>
+        <v>0.000123391439466881</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002282376417543595</v>
+        <v>0.0005844377809231647</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003053817220981422</v>
+        <v>0.007055485990311784</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000008268094334</v>
+        <v>1.000044133991907</v>
       </c>
       <c r="O19" t="n">
-        <v>0.003183824542351728</v>
+        <v>0.007355852635788807</v>
       </c>
       <c r="P19" t="n">
-        <v>129.1654516921329</v>
+        <v>125.8157992404367</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.7658704101476</v>
+        <v>190.4162179584513</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_34_2_21</t>
+          <t>model_34_2_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.999990013907869</v>
+        <v>0.9999443976328299</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991019006483264</v>
+        <v>0.9990798586619675</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999780022830365</v>
+        <v>0.9998532000836683</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999754099933249</v>
+        <v>0.9997558833603558</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999790788754569</v>
+        <v>0.9998275783411057</v>
       </c>
       <c r="G20" t="n">
-        <v>9.321578665501895e-06</v>
+        <v>5.190236909139206e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008383363227820086</v>
+        <v>0.0008589115495166381</v>
       </c>
       <c r="I20" t="n">
-        <v>2.472909405226009e-05</v>
+        <v>0.0001461331463286673</v>
       </c>
       <c r="J20" t="n">
-        <v>3.180025109785088e-05</v>
+        <v>9.937185685145239e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>2.826467257505548e-05</v>
+        <v>0.0001227558072020184</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002220117467754138</v>
+        <v>0.0006053317215359618</v>
       </c>
       <c r="M20" t="n">
-        <v>0.003053126048086108</v>
+        <v>0.007204329884964462</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000008264352108</v>
+        <v>1.000046015752141</v>
       </c>
       <c r="O20" t="n">
-        <v>0.003183103944795335</v>
+        <v>0.007511033123186188</v>
       </c>
       <c r="P20" t="n">
-        <v>129.1663571178005</v>
+        <v>125.7322922432025</v>
       </c>
       <c r="Q20" t="n">
-        <v>193.7667758358151</v>
+        <v>190.3327109612171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_34_2_22</t>
+          <t>model_34_2_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999899998291509</v>
+        <v>0.9999415052906429</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991010489724222</v>
+        <v>0.9990688044527443</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999778042078709</v>
+        <v>0.999856636849997</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999752654975476</v>
+        <v>0.9997496777851717</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999789278027083</v>
+        <v>0.9998282115881899</v>
       </c>
       <c r="G21" t="n">
-        <v>9.334720530881784e-06</v>
+        <v>5.460224356386588e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008391313248541923</v>
+        <v>0.0008692301686028135</v>
       </c>
       <c r="I21" t="n">
-        <v>2.495176349604048e-05</v>
+        <v>0.0001427119899046555</v>
       </c>
       <c r="J21" t="n">
-        <v>3.198711570773342e-05</v>
+        <v>0.0001018979424545324</v>
       </c>
       <c r="K21" t="n">
-        <v>2.846877354333108e-05</v>
+        <v>0.0001223049661795939</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002163406736869673</v>
+        <v>0.0006285583396956921</v>
       </c>
       <c r="M21" t="n">
-        <v>0.003055277488360392</v>
+        <v>0.007389333093308616</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000008276003461</v>
+        <v>1.00004840941464</v>
       </c>
       <c r="O21" t="n">
-        <v>0.003185346976336191</v>
+        <v>0.007703912301118989</v>
       </c>
       <c r="P21" t="n">
-        <v>129.163539438385</v>
+        <v>125.6308711702887</v>
       </c>
       <c r="Q21" t="n">
-        <v>193.7639581563996</v>
+        <v>190.2312898883033</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_34_2_23</t>
+          <t>model_34_2_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.999989971626057</v>
+        <v>0.9999380963429138</v>
       </c>
       <c r="C22" t="n">
-        <v>0.999100262114746</v>
+        <v>0.9990559797988279</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999776233649437</v>
+        <v>0.9998604633096099</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999750910419023</v>
+        <v>0.9997446651771966</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999787692011208</v>
+        <v>0.9998294536760081</v>
       </c>
       <c r="G22" t="n">
-        <v>9.36104688111438e-06</v>
+        <v>5.778434663349129e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008398658219559178</v>
+        <v>0.0008812014200964952</v>
       </c>
       <c r="I22" t="n">
-        <v>2.515506103656771e-05</v>
+        <v>0.0001389029101959537</v>
       </c>
       <c r="J22" t="n">
-        <v>3.221272497235486e-05</v>
+        <v>0.0001039384103344439</v>
       </c>
       <c r="K22" t="n">
-        <v>2.868304605668653e-05</v>
+        <v>0.0001214206602651988</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002112937630584692</v>
+        <v>0.0006528459492053594</v>
       </c>
       <c r="M22" t="n">
-        <v>0.003059582795270359</v>
+        <v>0.007601601583448799</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000008299343953</v>
+        <v>1.000051230612761</v>
       </c>
       <c r="O22" t="n">
-        <v>0.003189835569074529</v>
+        <v>0.007925217500340791</v>
       </c>
       <c r="P22" t="n">
-        <v>129.1579068549124</v>
+        <v>125.5175852769079</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.758325572927</v>
+        <v>190.1180039949225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_34_2_24</t>
+          <t>model_34_2_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999899335698806</v>
+        <v>0.999933784827568</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990995381640053</v>
+        <v>0.9990411920941031</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999774615781268</v>
+        <v>0.9998641554091878</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999748953691859</v>
+        <v>0.9997386595535931</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999786076122362</v>
+        <v>0.999830317947358</v>
       </c>
       <c r="G23" t="n">
-        <v>9.396570651197639e-06</v>
+        <v>6.1808956955072e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008405415981945763</v>
+        <v>0.0008950050933518219</v>
       </c>
       <c r="I23" t="n">
-        <v>2.533693633820071e-05</v>
+        <v>0.0001352275802545794</v>
       </c>
       <c r="J23" t="n">
-        <v>3.246577254562067e-05</v>
+        <v>0.0001063831022239828</v>
       </c>
       <c r="K23" t="n">
-        <v>2.890135444191069e-05</v>
+        <v>0.0001208053412392811</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002074851301380315</v>
+        <v>0.000679475011249903</v>
       </c>
       <c r="M23" t="n">
-        <v>0.003065382627209471</v>
+        <v>0.007861867268980824</v>
       </c>
       <c r="N23" t="n">
-        <v>1.00000833083872</v>
+        <v>1.000054798763392</v>
       </c>
       <c r="O23" t="n">
-        <v>0.003195882311866596</v>
+        <v>0.008196563234930156</v>
       </c>
       <c r="P23" t="n">
-        <v>129.1503315191872</v>
+        <v>125.3829245389091</v>
       </c>
       <c r="Q23" t="n">
-        <v>193.7507502372018</v>
+        <v>189.9833432569237</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.999958632092909</v>
+        <v>0.999928571750761</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990978202028971</v>
+        <v>0.9990240162324739</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999870949561772</v>
+        <v>0.9998679211968885</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998789545036084</v>
+        <v>0.9997335114285978</v>
       </c>
       <c r="F24" t="n">
-        <v>0.999936694031311</v>
+        <v>0.9998314775603681</v>
       </c>
       <c r="G24" t="n">
-        <v>3.861512542811587e-05</v>
+        <v>6.66751353267814e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008421452394793999</v>
+        <v>0.0009110380062494602</v>
       </c>
       <c r="I24" t="n">
-        <v>1.450741651835262e-05</v>
+        <v>0.0001314788968844393</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001565382730629085</v>
+        <v>0.0001084787346267038</v>
       </c>
       <c r="K24" t="n">
-        <v>8.552706970195449e-05</v>
+        <v>0.0001199797533635486</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0005262330911056483</v>
+        <v>0.0007075924247791452</v>
       </c>
       <c r="M24" t="n">
-        <v>0.006214106969478066</v>
+        <v>0.008165484390211116</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000034235509317</v>
+        <v>1.000059113033853</v>
       </c>
       <c r="O24" t="n">
-        <v>0.006478654368143518</v>
+        <v>0.008513105965585306</v>
       </c>
       <c r="P24" t="n">
-        <v>126.323733015555</v>
+        <v>125.2313569165005</v>
       </c>
       <c r="Q24" t="n">
-        <v>190.9241517335697</v>
+        <v>189.8317756345151</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999492721669458</v>
+        <v>0.9999224011712834</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990861029818148</v>
+        <v>0.9990040368528408</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999862894010687</v>
+        <v>0.9998720354084544</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998459150814709</v>
+        <v>0.9997304379766435</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999205511615324</v>
+        <v>0.9998334765026167</v>
       </c>
       <c r="G25" t="n">
-        <v>4.735220546157171e-05</v>
+        <v>7.243510041204635e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008530827510331857</v>
+        <v>0.0009296878801436184</v>
       </c>
       <c r="I25" t="n">
-        <v>1.541299449605509e-05</v>
+        <v>0.0001273833722014778</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001992654643966131</v>
+        <v>0.0001097298358547214</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001073362668019651</v>
+        <v>0.0001185566040280996</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0005595739735709881</v>
+        <v>0.0007364282968216852</v>
       </c>
       <c r="M25" t="n">
-        <v>0.006881293879901636</v>
+        <v>0.008510881294674855</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000041981654941</v>
+        <v>1.000064219720317</v>
       </c>
       <c r="O25" t="n">
-        <v>0.007174244806611121</v>
+        <v>0.008873207131342226</v>
       </c>
       <c r="P25" t="n">
-        <v>125.915794323118</v>
+        <v>125.0656391274701</v>
       </c>
       <c r="Q25" t="n">
-        <v>190.5162130411326</v>
+        <v>189.6660578454847</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999377234800386</v>
+        <v>0.9999146117327554</v>
       </c>
       <c r="C26" t="n">
-        <v>0.999071955293939</v>
+        <v>0.9989808830876364</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999848478115487</v>
+        <v>0.9998755396511722</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9998046738102857</v>
+        <v>0.9997258802895655</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999002065799323</v>
+        <v>0.9998346233802315</v>
       </c>
       <c r="G26" t="n">
-        <v>5.813239776070464e-05</v>
+        <v>7.97061993610213e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008662889966534475</v>
+        <v>0.0009513009036290108</v>
       </c>
       <c r="I26" t="n">
-        <v>1.703358098169658e-05</v>
+        <v>0.0001238950458682682</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0002525994385030683</v>
+        <v>0.0001115851203963603</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001348220234314019</v>
+        <v>0.0001177400831323142</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0006000842953196068</v>
+        <v>0.0007679008419922244</v>
       </c>
       <c r="M26" t="n">
-        <v>0.007624460489812026</v>
+        <v>0.008927832847954833</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000051539188934</v>
+        <v>1.000070666152202</v>
       </c>
       <c r="O26" t="n">
-        <v>0.007949049557672359</v>
+        <v>0.009307909175454035</v>
       </c>
       <c r="P26" t="n">
-        <v>125.5055748577057</v>
+        <v>124.8743263829829</v>
       </c>
       <c r="Q26" t="n">
-        <v>190.1059935757204</v>
+        <v>189.4747451009975</v>
       </c>
     </row>
   </sheetData>
